--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\befto\github\UIMedicao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD36967-74BA-4C4C-A861-160C1561B186}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575FCD89-016D-45D7-ADA2-DC6E7C501B9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="3330" windowWidth="15375" windowHeight="9990" xr2:uid="{01B8EF70-070F-463B-831E-4A38366CACD4}"/>
+    <workbookView xWindow="2355" yWindow="930" windowWidth="15375" windowHeight="9990" xr2:uid="{01B8EF70-070F-463B-831E-4A38366CACD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,32 +539,32 @@
         <v>62500</v>
       </c>
       <c r="B2" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6">
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <f>D2*2</f>
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="F2">
         <f>C2*E2+1</f>
-        <v>631</v>
+        <v>883</v>
       </c>
       <c r="G2">
         <v>250000</v>
       </c>
       <c r="H2">
         <f>F2*10/G2</f>
-        <v>2.5239999999999999E-2</v>
+        <v>3.5319999999999997E-2</v>
       </c>
       <c r="I2">
         <f>G2/(10*F2)</f>
-        <v>39.619651347068142</v>
+        <v>28.312570781426952</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A2/B2</f>
-        <v>3289.4736842105262</v>
+        <v>7812.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -598,15 +598,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>A2/(C2*D2*B2)</f>
-        <v>10.442773600668337</v>
+        <v>17.715419501133788</v>
       </c>
       <c r="D6">
         <f>1/C6</f>
-        <v>9.5759999999999998E-2</v>
+        <v>5.6447999999999998E-2</v>
       </c>
       <c r="F6">
         <f>C6*D2</f>
-        <v>1096.4912280701753</v>
+        <v>2604.166666666667</v>
       </c>
     </row>
   </sheetData>
